--- a/excel/templates/purchaseTemplate.xlsx
+++ b/excel/templates/purchaseTemplate.xlsx
@@ -1,24 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arsen/Desktop/Work/WWB/target/excel/templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikolay/trunks/WBB/target/excel/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D64FB428-5B38-E746-A87A-B5075CCE455E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8CDC08D-794D-2245-BE42-B3DCFA9F453C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21960" yWindow="4080" windowWidth="20740" windowHeight="11160" activeTab="1" xr2:uid="{09EB10F6-87EF-4346-8EAF-2924021A5A12}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16520" xr2:uid="{09EB10F6-87EF-4346-8EAF-2924021A5A12}"/>
   </bookViews>
   <sheets>
-    <sheet name="На ПВЗ" sheetId="1" r:id="rId1"/>
-    <sheet name="Все" sheetId="3" r:id="rId2"/>
+    <sheet name="1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Все!$A$1:$H$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'На ПВЗ'!$A$1:$H$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1'!$A$1:$H$1</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,29 +34,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
-  <si>
-    <t>Номер</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>ФИО</t>
   </si>
   <si>
-    <t>ПВЗ</t>
-  </si>
-  <si>
-    <t>Статус</t>
-  </si>
-  <si>
-    <t>Код</t>
-  </si>
-  <si>
-    <t>Комментарий</t>
-  </si>
-  <si>
-    <t>Дата покупки</t>
-  </si>
-  <si>
     <t>Артикул</t>
   </si>
   <si>
@@ -68,22 +48,16 @@
     <t>Бренд</t>
   </si>
   <si>
-    <t>Размер</t>
-  </si>
-  <si>
     <t>Цена</t>
   </si>
   <si>
-    <t>Телефон аккаунта</t>
-  </si>
-  <si>
-    <t>Имя Аккаунта</t>
-  </si>
-  <si>
-    <t>Дата выкупа</t>
-  </si>
-  <si>
     <t>Дата забора</t>
+  </si>
+  <si>
+    <t>Телефон</t>
+  </si>
+  <si>
+    <t>Дата заказа</t>
   </si>
 </sst>
 </file>
@@ -135,7 +109,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -153,6 +127,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -469,44 +446,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5335C90F-F207-0443-9CC8-071753D913C2}">
   <dimension ref="A1:M1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.1640625" customWidth="1"/>
+    <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="16.1640625" style="2" customWidth="1"/>
     <col min="3" max="3" width="15.1640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="8" style="3" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="18" style="2" customWidth="1"/>
-    <col min="7" max="7" width="27.83203125" customWidth="1"/>
-    <col min="8" max="8" width="7.6640625" customWidth="1"/>
-    <col min="9" max="9" width="37.6640625" customWidth="1"/>
-    <col min="10" max="10" width="17.83203125" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="18.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.1640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" customWidth="1"/>
+    <col min="10" max="10" width="9.5" customWidth="1"/>
     <col min="11" max="11" width="11.33203125" customWidth="1"/>
-    <col min="12" max="12" width="24.83203125" customWidth="1"/>
+    <col min="12" max="12" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>1</v>
@@ -514,75 +491,14 @@
       <c r="H1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
       <c r="M1" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:H1" xr:uid="{79EFE145-6AF7-4829-8B15-C3C4F6246348}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4C5DCFB-D76E-EE4F-B8D2-546F2C037FD7}">
-  <dimension ref="A1:I1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="22.83203125" customWidth="1"/>
-    <col min="2" max="2" width="16.1640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="25" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17" style="3" customWidth="1"/>
-    <col min="5" max="5" width="14" style="2" customWidth="1"/>
-    <col min="6" max="6" width="18" style="2" customWidth="1"/>
-    <col min="7" max="7" width="27.83203125" customWidth="1"/>
-    <col min="8" max="8" width="15.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="1"/>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:H1" xr:uid="{D2868C15-EE6B-46B6-9322-DF5DF465D5C2}"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/excel/templates/purchaseTemplate.xlsx
+++ b/excel/templates/purchaseTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikolay/trunks/WBB/target/excel/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8CDC08D-794D-2245-BE42-B3DCFA9F453C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CAE47C7-0612-F341-9ED0-BEBFD62D4009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16520" xr2:uid="{09EB10F6-87EF-4346-8EAF-2924021A5A12}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1'!$A$1:$H$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1'!$A$1:$I$1</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>ФИО</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>Дата заказа</t>
+  </si>
+  <si>
+    <t>Размер</t>
   </si>
 </sst>
 </file>
@@ -109,7 +112,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -127,9 +130,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -447,7 +447,7 @@
   <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -491,14 +491,16 @@
       <c r="H1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H1" xr:uid="{79EFE145-6AF7-4829-8B15-C3C4F6246348}"/>
+  <autoFilter ref="A1:I1" xr:uid="{5335C90F-F207-0443-9CC8-071753D913C2}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>